--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2631.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2631.xlsx
@@ -354,7 +354,7 @@
         <v>1.539414830713817</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.66835651233308</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2631.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2631.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.794049724895085</v>
+        <v>1.242581963539124</v>
       </c>
       <c r="B1">
-        <v>1.539414830713817</v>
+        <v>2.34207010269165</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.390633583068848</v>
       </c>
       <c r="D1">
-        <v>1.66835651233308</v>
+        <v>2.224164247512817</v>
       </c>
       <c r="E1">
-        <v>0.888574394568533</v>
+        <v>1.373640537261963</v>
       </c>
     </row>
   </sheetData>
